--- a/public/shoes.xlsx
+++ b/public/shoes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Documents\MJU\node.js\expressproject-main\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Documents\MJU\node.js\Shoe-Shop\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF74ECC-410A-4823-9010-D1FCEAF6FF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCB98DC-FEDB-44D1-B49D-D667DCBBAA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{81CD5209-88A2-44E7-B76D-B1E52ACA8FB4}"/>
+    <workbookView xWindow="1290" yWindow="1515" windowWidth="11400" windowHeight="6285" xr2:uid="{81CD5209-88A2-44E7-B76D-B1E52ACA8FB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,67 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
-  <si>
-    <t>부클레 스팽글 Old Skool 올드스쿨</t>
-  </si>
-  <si>
-    <t>부클레 스팽글 클래식 Slip-on 슬립온</t>
-  </si>
-  <si>
-    <t>에코 띠어리 스톤 워시 Old Skool 올드스쿨 테이퍼드</t>
-  </si>
-  <si>
-    <t>에코 띠어리 스톤 워시 SK8-Hi 스케이트-하이 테이퍼드</t>
-  </si>
-  <si>
-    <t>스타일 53 STYLE 53 코지 뮬 DX</t>
-  </si>
-  <si>
-    <t>코듀라 셰르파 SK8-Hi 스케이트-하이</t>
-  </si>
-  <si>
-    <t>애너하임 Authentic 어센틱 44 Lug DX</t>
-  </si>
-  <si>
-    <t>BMX 스타일 114 STYLE 114</t>
-  </si>
-  <si>
-    <t>SK8-Hi 스케이트-하이 MTE-1</t>
-  </si>
-  <si>
-    <t>윈터 컬렉션 Authentic 어센틱 셰르파</t>
-  </si>
-  <si>
-    <t>VANS X 원피스 Old Skool 올드스쿨</t>
-  </si>
-  <si>
-    <t>VANS X 원피스 Authentic 어센틱</t>
-  </si>
-  <si>
-    <t>VANS X 원피스 SK8-Hi 스케이트-하이</t>
-  </si>
-  <si>
-    <t>VANS X 원피스 스케이트 Old Skool 올드스쿨</t>
-  </si>
-  <si>
-    <t>스케이트 그루소 미드</t>
-  </si>
-  <si>
-    <t>VANS X NBHD Old Skool 올드스쿨 36 DX</t>
-  </si>
-  <si>
-    <t>코지 허그 SK8-Hi 스케이트-하이</t>
-  </si>
-  <si>
-    <t>코지 허그 Old Skool 올드스쿨</t>
-  </si>
-  <si>
-    <t>코스트 뮬 CC</t>
-  </si>
-  <si>
-    <t>트리피 코드 Era 에라 패치워크</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="74">
   <si>
     <t>name</t>
   </si>
@@ -107,95 +47,243 @@
     <t>index</t>
   </si>
   <si>
-    <t>tag</t>
-  </si>
-  <si>
-    <t>캐주얼</t>
-  </si>
-  <si>
-    <t>스포츠</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
-    <t>detail</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>남성용</t>
-  </si>
-  <si>
-    <t>여성용</t>
-  </si>
-  <si>
-    <t>공용</t>
+    <t>img</t>
+  </si>
+  <si>
+    <t>https://img.soldout.co.kr/items/2022/11/07/6cf7c767-3b8c-4b47-9592-e7511384c2cb.png/soldout/resize/564x564/optimize</t>
+  </si>
+  <si>
+    <t>나이키 덩크 로우 SP 바시티 로열 (2022)</t>
+  </si>
+  <si>
+    <t>덩크</t>
+  </si>
+  <si>
+    <t>https://img.soldout.co.kr/items/2022/11/04/a8844295-e714-4fb6-92eb-9fa7b613e94e.png/soldout/resize/564x564/optimize</t>
+  </si>
+  <si>
+    <t>나이키 덩크 로우 레트로 화이트 블랙</t>
+  </si>
+  <si>
+    <t>https://img.soldout.co.kr/items/2022/10/26/e107f271-b41c-4556-93dd-172fb5cca5bd.png/soldout/resize/564x564/optimize</t>
+  </si>
+  <si>
+    <t>나이키 덩크 로우 레트로 화이트 뉴트럴 그레이</t>
+  </si>
+  <si>
+    <t>나이키 덩크 로우 넥스트 네이처 라일락 (W)</t>
+  </si>
+  <si>
+    <t>나이키 덩크 하이 레트로 유니버시티 골드 블랙</t>
+  </si>
+  <si>
+    <t>https://img.soldout.co.kr/items/2022/07/08/972abad4-8bb6-41f3-b9c9-f7d95d611b8c.png/soldout/resize/564x564/optimize</t>
+  </si>
+  <si>
+    <t>https://img.soldout.co.kr/items/2022/07/11/ad4c50e2-c7b3-49cb-b78c-866a8efb0385.png/soldout/resize/564x564/optimize</t>
+  </si>
+  <si>
+    <t>나이키 덩크 로우 오프화이트 로트 18</t>
+  </si>
+  <si>
+    <t>https://img.soldout.co.kr/items/2022/11/02/d15b9a83-a4b0-4f2f-9a71-9d2b829caa40.png/soldout/resize/564x564/optimize</t>
+  </si>
+  <si>
+    <t>사카이</t>
+  </si>
+  <si>
+    <t>나이키 LD 와플 사카이 프라그먼트 라이트 스모크 그레이</t>
+  </si>
+  <si>
+    <t>https://img.soldout.co.kr/items/2022/11/02/b22b13f8-2897-423e-b5cf-de0e173d7cc6.png/soldout/resize/564x564/optimize</t>
+  </si>
+  <si>
+    <t>나이키 줌 코르테즈 SP 사카이 화이트 앤 유니버시티 레드</t>
+  </si>
+  <si>
+    <t>https://img.soldout.co.kr/items/2022/07/13/d9bb52dd-01d2-4b0f-a63d-a8944cecaa2d.png/soldout/resize/564x564/optimize</t>
+  </si>
+  <si>
+    <t>나이키 베이퍼와플 사카이 블랙 앤 검</t>
+  </si>
+  <si>
+    <t>https://img.soldout.co.kr/items/2022/02/03/badf8ee0-542f-410e-9173-e7beeb4e2adc.png/soldout/resize/564x564/optimize</t>
+  </si>
+  <si>
+    <t>나이키 블레이저 로우 사카이 화이트 페이턴트 레더</t>
+  </si>
+  <si>
+    <t>https://img.soldout.co.kr/items/2022/03/18/68e50bb3-fef3-4957-9152-de194d6ced16.png/soldout/resize/564x564/optimize</t>
+  </si>
+  <si>
+    <t>나이키 베이퍼와플 사카이 로열 푸크시아</t>
+  </si>
+  <si>
+    <t>https://img.soldout.co.kr/items/2020/10/15/ac779f76-146f-4169-afae-3b3d8de87d51.png/soldout/resize/564x564/optimize</t>
+  </si>
+  <si>
+    <t>나이키 블레이저 로우 사카이 클래식 그린</t>
+  </si>
+  <si>
+    <t>https://img.soldout.co.kr/items/2021/05/20/c218efbf-5b77-4739-a6ed-ad0d927945e1.png/soldout/resize/564x564/optimize</t>
+  </si>
+  <si>
+    <t>조던1</t>
+  </si>
+  <si>
+    <t>에어 조던 1 레트로 하이 OG 다크 모카</t>
+  </si>
+  <si>
+    <t>https://img.soldout.co.kr/items/2022/11/07/88090f1e-2e9c-4f9f-94ff-46f0cc03bd1b.png/soldout/resize/564x564/optimize</t>
+  </si>
+  <si>
+    <t>https://img.soldout.co.kr/items/2022/10/27/c4a8f078-e564-4222-b5d8-431d62bcc9fa.png/soldout/resize/564x564/optimize</t>
+  </si>
+  <si>
+    <t>https://img.soldout.co.kr/items/2022/11/04/cfcee9f0-d6b2-444d-a345-6bf8edd32b47.png/soldout/resize/564x564/optimize</t>
+  </si>
+  <si>
+    <t>에어 조던 1 로우 OG 자이언 윌리엄슨 플랙스 앤 오일 그린</t>
+  </si>
+  <si>
+    <t>에어 조던 1 레트로 로우 OG SP 트래비스 스캇 세일 앤 리저록</t>
+  </si>
+  <si>
+    <t>에어 조던 7 레트로 트로피 룸 트루 레드 앤 옵시디언</t>
+  </si>
+  <si>
+    <t>에어 조던 1 로우 골프 이스트사이드 골프 미드나잇 네이비</t>
+  </si>
+  <si>
+    <t>https://img.soldout.co.kr/items/2022/11/07/c3e1eaa4-3b68-4f19-b46c-83cf105662f6.png/soldout/resize/564x564/optimize</t>
+  </si>
+  <si>
+    <t>https://img.soldout.co.kr/items/2022/10/22/a4a4cf04-5ef8-4f7d-b12a-5512e113dd9b.png/soldout/resize/564x564/optimize</t>
+  </si>
+  <si>
+    <t>https://img.soldout.co.kr/items/2022/02/08/3dfcfd0d-1bb2-455b-b98c-e7bb5efb6ba0.png/soldout/resize/564x564/optimize</t>
+  </si>
+  <si>
+    <t>에어 조던 1 로우 SE 쉐르파 플리스 (W)</t>
+  </si>
+  <si>
+    <t>뉴발란스</t>
+  </si>
+  <si>
+    <t>https://img.soldout.co.kr/items/2022/10/17/938130a1-6ad9-4fd3-8e2c-b94468ae0ff6.png/soldout/resize/564x564/optimize</t>
+  </si>
+  <si>
+    <t>https://img.soldout.co.kr/items/2020/11/03/69c2ddbf-00a3-440d-8734-6e308f3d7815.png/soldout/resize/564x564/optimize</t>
+  </si>
+  <si>
+    <t>뉴발란스 991 MIUK 네이비 (D 스탠다드)</t>
+  </si>
+  <si>
+    <t>뉴발란스 992 그레이 (D Standard)</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>나이키/NIKE</t>
+  </si>
+  <si>
+    <t>CU1726-100</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>DD1391-100</t>
+  </si>
+  <si>
+    <t>DJ6188-003</t>
+  </si>
+  <si>
+    <t>DN1431-103</t>
+  </si>
+  <si>
+    <t>DD1399-700</t>
+  </si>
+  <si>
+    <t>DJ0950-122</t>
+  </si>
+  <si>
+    <t>DH2684-001</t>
+  </si>
+  <si>
+    <t>DQ0581-100</t>
+  </si>
+  <si>
+    <t>DD1875-001</t>
+  </si>
+  <si>
+    <t>DM6443-100</t>
+  </si>
+  <si>
+    <t>CV1363-100</t>
+  </si>
+  <si>
+    <t>DD1877-001</t>
+  </si>
+  <si>
+    <t>555088-105</t>
+  </si>
+  <si>
+    <t>DM7866-162</t>
+  </si>
+  <si>
+    <t>조던/JORDAN</t>
+  </si>
+  <si>
+    <t>DZ7292-200</t>
+  </si>
+  <si>
+    <t>DM1195-474</t>
+  </si>
+  <si>
+    <t>DO0750-002</t>
+  </si>
+  <si>
+    <t>DV1759-448</t>
+  </si>
+  <si>
+    <t>뉴발란스/NEW Balance</t>
+  </si>
+  <si>
+    <t>M992GR</t>
+  </si>
+  <si>
+    <t>M991NV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
@@ -219,18 +307,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -542,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1345DFA-58ED-4EAC-AFF9-CE168AD15FCC}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D13"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -553,428 +644,496 @@
     <col min="2" max="2" width="46.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="F1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1">
-        <v>89000</v>
+        <v>179000</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1">
-        <v>79000</v>
+        <v>144000</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1">
-        <v>99000</v>
+        <v>120000</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1">
-        <v>109000</v>
+        <v>158000</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>7</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1">
-        <v>135000</v>
+        <v>160000</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>7</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1">
-        <v>109000</v>
+        <v>505000</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1">
-        <v>105000</v>
+        <v>573500</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1">
-        <v>109000</v>
+        <v>244000</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1">
-        <v>109000</v>
+        <v>395000</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
         <v>24</v>
       </c>
-      <c r="F10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1">
-        <v>79000</v>
+        <v>125000</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1">
-        <v>119000</v>
+        <v>950000</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1">
-        <v>109000</v>
+        <v>180000</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C14" s="1">
-        <v>129000</v>
+        <v>472000</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>31</v>
+      </c>
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1">
-        <v>99000</v>
+        <v>194500</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>31</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1">
-        <v>95000</v>
+        <v>1345000</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>31</v>
+      </c>
+      <c r="G16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C17" s="1">
-        <v>115000</v>
+        <v>274000</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>31</v>
+      </c>
+      <c r="G17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C18" s="1">
-        <v>99000</v>
+        <v>162000</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>31</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C19" s="1">
-        <v>89000</v>
+        <v>130000</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>31</v>
+      </c>
+      <c r="G19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C20" s="1">
-        <v>119000</v>
+        <v>515000</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="F20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C21" s="1">
-        <v>89000</v>
+        <v>295000</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="F21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G6" r:id="rId1" xr:uid="{8EAE5CFC-6EEE-4A49-9AE7-4D8CC47F6CD9}"/>
+    <hyperlink ref="G5" r:id="rId2" xr:uid="{3D35C4A9-6F03-4474-BA4B-57D1FA8B5430}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>